--- a/bot/data/files/to_send/users.xlsx
+++ b/bot/data/files/to_send/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Лаврещук</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Терехов</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Паша</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Кухлевская</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Черкалина</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bot/data/files/to_send/users.xlsx
+++ b/bot/data/files/to_send/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,68 +453,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Лаврещук</t>
+          <t>Эрназаров</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Назарбек</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>5К</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Терехов</t>
+          <t>Титова</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Паша</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>10Д</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кухлевская</t>
+          <t>Макарченкова</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Кристина</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>10Д</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Черкалина</t>
+          <t>Макарова</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t>Дарья</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>8Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Евдокимова</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Сергачева</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6Б</t>
         </is>
       </c>
     </row>
